--- a/oac/dialog/parameters.xlsx
+++ b/oac/dialog/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">btn_text_filled</t>
   </si>
   <si>
-    <t xml:space="preserve">input_bool</t>
+    <t xml:space="preserve">fill_by_text_input</t>
   </si>
   <si>
     <t xml:space="preserve">topic</t>
@@ -301,11 +301,11 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.64"/>
@@ -478,11 +478,11 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="21.16"/>
   </cols>

--- a/oac/dialog/parameters.xlsx
+++ b/oac/dialog/parameters.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">func_id</t>
+    <t xml:space="preserve">func_ids</t>
   </si>
   <si>
     <t xml:space="preserve">btn_text</t>
@@ -302,10 +302,10 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.64"/>
@@ -482,7 +482,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="21.16"/>
   </cols>

--- a/oac/dialog/parameters.xlsx
+++ b/oac/dialog/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">discomfort</t>
   </si>
   <si>
-    <t xml:space="preserve">дискомфорт в положении ни спине</t>
+    <t xml:space="preserve">дискомфорт в положении на спине</t>
   </si>
   <si>
     <t xml:space="preserve">дискомфорт на спине: {}</t>
@@ -134,10 +134,7 @@
     <t xml:space="preserve">text_if_filled</t>
   </si>
   <si>
-    <t xml:space="preserve">parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count</t>
+    <t xml:space="preserve">sma_risk_factor_count</t>
   </si>
   <si>
     <t xml:space="preserve">big_f</t>
@@ -146,7 +143,7 @@
     <t xml:space="preserve">вес плода &gt; 4кг</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; 4кг</t>
+    <t xml:space="preserve">&gt; 4</t>
   </si>
   <si>
     <t xml:space="preserve">normal_f</t>
@@ -155,7 +152,7 @@
     <t xml:space="preserve">2.5кг &lt; вес плода &lt; 4кг</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5-5 кг</t>
+    <t xml:space="preserve">2.5-5</t>
   </si>
   <si>
     <t xml:space="preserve">small_f</t>
@@ -164,7 +161,7 @@
     <t xml:space="preserve">вес плода &lt; 2.5 кг</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; 2.5 кг</t>
+    <t xml:space="preserve">&lt; 2.5</t>
   </si>
   <si>
     <t xml:space="preserve">poly_b</t>
@@ -301,11 +298,11 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.64"/>
@@ -476,15 +473,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="21.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,169 +502,142 @@
       <c r="E1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">C5</f>
         <v>многоводие</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">C7</f>
         <v>маловодие</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/oac/dialog/parameters.xlsx
+++ b/oac/dialog/parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -41,6 +41,9 @@
     <t xml:space="preserve">topic</t>
   </si>
   <si>
+    <t xml:space="preserve">default_value</t>
+  </si>
+  <si>
     <t xml:space="preserve">weight</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
     <t xml:space="preserve">Оценка веса плода. Выберите вариант</t>
   </si>
   <si>
+    <t xml:space="preserve">normal_f</t>
+  </si>
+  <si>
     <t xml:space="preserve">bladder</t>
   </si>
   <si>
@@ -113,18 +119,24 @@
     <t xml:space="preserve">Оценка объема амниотической жидкости. Выберите вариант</t>
   </si>
   <si>
+    <t xml:space="preserve">normal_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">discomfort</t>
   </si>
   <si>
     <t xml:space="preserve">дискомфорт в положении на спине</t>
   </si>
   <si>
-    <t xml:space="preserve">дискомфорт на спине: {}</t>
+    <t xml:space="preserve">дискомфорт в положении на спине: {}</t>
   </si>
   <si>
     <t xml:space="preserve">Предъявляет ли пациентка жалобы на потемнение в глазах, одышку, головокружение в положении лежа на спине?</t>
   </si>
   <si>
+    <t xml:space="preserve">d_n</t>
+  </si>
+  <si>
     <t xml:space="preserve">parameter_id</t>
   </si>
   <si>
@@ -146,13 +158,10 @@
     <t xml:space="preserve">&gt; 4</t>
   </si>
   <si>
-    <t xml:space="preserve">normal_f</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.5кг &lt; вес плода &lt; 4кг</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5-5</t>
+    <t xml:space="preserve">от 2.5 до 4</t>
   </si>
   <si>
     <t xml:space="preserve">small_f</t>
@@ -170,9 +179,6 @@
     <t xml:space="preserve">многоводие</t>
   </si>
   <si>
-    <t xml:space="preserve">normal_b</t>
-  </si>
-  <si>
     <t xml:space="preserve">нормальный объем</t>
   </si>
   <si>
@@ -189,9 +195,6 @@
   </si>
   <si>
     <t xml:space="preserve">да</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_n</t>
   </si>
   <si>
     <t xml:space="preserve">нет</t>
@@ -296,19 +299,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="98.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -330,131 +333,152 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -476,10 +500,10 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.91"/>
@@ -491,30 +515,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -522,16 +546,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -539,16 +563,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>-1</v>
@@ -556,13 +580,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">C5</f>
@@ -574,16 +598,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -591,13 +615,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">C7</f>
@@ -609,16 +633,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -626,16 +650,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
